--- a/Inventario Variables.xlsx
+++ b/Inventario Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Italo\Documents\PhD\PhD\First\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D9F76A-BDB9-4F55-81FF-75129F0749F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6CE68-CC3C-45BD-9672-E7B9CBC772BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4B21C10B-8F60-4B32-8AFE-E855FB5760F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="102">
   <si>
     <t>Index of IP: total</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>Intermonth Growth Rate</t>
+  </si>
+  <si>
+    <t>Fast-Slow</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Fast</t>
   </si>
 </sst>
 </file>
@@ -396,11 +405,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}" name="Table3" displayName="Table3" ref="A1:B88" totalsRowShown="0">
-  <autoFilter ref="A1:B88" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}" name="Table3" displayName="Table3" ref="A1:C88" totalsRowShown="0">
+  <autoFilter ref="A1:C88" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4DB4B9FB-81B7-4F5F-BCCE-F9AFD405CE77}" name="Variable" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5D8E1A5D-D272-45B8-9953-A4BCC32A72D9}" name="Transformation"/>
+    <tableColumn id="3" xr3:uid="{8217B4A3-D472-4DD7-BB25-A1C3084AD0AB}" name="Fast-Slow"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1457,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F71190-3B77-4C5D-A499-CE68E248D7F2}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,708 +1479,972 @@
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
         <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Inventario Variables.xlsx
+++ b/Inventario Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Italo\Documents\PhD\PhD\First\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e6e6328e2e15654/Documents/PhD/PhD/First/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6CE68-CC3C-45BD-9672-E7B9CBC772BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{91C6CE68-CC3C-45BD-9672-E7B9CBC772BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FAD21D-73D6-465E-9891-035B102DACAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4B21C10B-8F60-4B32-8AFE-E855FB5760F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="125">
   <si>
     <t>Index of IP: total</t>
   </si>
@@ -343,6 +343,75 @@
   </si>
   <si>
     <t>Fast</t>
+  </si>
+  <si>
+    <t>U.S. Dollars to U.K. Pound Sterling Spot Exchange Rate</t>
+  </si>
+  <si>
+    <t>Unempployment Rate - Job Losers</t>
+  </si>
+  <si>
+    <t>Unemployment Level - Reentrants to Labor Force, Thousands of Persons, Monthly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Unemployment Level - Job Leavers, Thousands of Persons, Monthly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Unemployment Level - New Entrants, Thousands of Persons, Monthly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Employment Level - Part-Time for Economic Reasons, All Industries, Thousands of Persons, Monthly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Commodity: Final Demand: Personal Consumption Goods (Finished Consumer Goods), Index 1982=100, Monthly, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Commodity: Industrial Commodities, Index 1982=100, Monthly, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Producer Price Index by Commodity: Fuels and Related Products and Power: Natural Gas, Index 1982=100, Monthly, Not Seasonally Adjusted, Deflated</t>
+  </si>
+  <si>
+    <t>GS1 minus T-Bill 3 months</t>
+  </si>
+  <si>
+    <t>Short-term Commercial Paper minus T-Bill 3 months</t>
+  </si>
+  <si>
+    <t>Commercial and Industrial Loans, All Commercial Banks, Billions of U.S. Dollars, Monthly, Seasonally Adjusted, Real</t>
+  </si>
+  <si>
+    <t>Consumer Loans, All Commercial Banks, Billions of U.S. Dollars, Monthly, Seasonally Adjusted, Real</t>
+  </si>
+  <si>
+    <t>Percent Change of Total Nonrevolving Consumer Credit, Percent Change at Annual Rate, Monthly, Seasonally Adjusted Annual Rate</t>
+  </si>
+  <si>
+    <t>Real Estate Loans, All Commercial Banks, Billions of U.S. Dollars, Monthly, Seasonally Adjusted, Real</t>
+  </si>
+  <si>
+    <t>Total Revolving credit outstanding, not seasonally adjusted level, Real</t>
+  </si>
+  <si>
+    <t>BAA Corporate bond minus GS10</t>
+  </si>
+  <si>
+    <t>30-year US Mortgage Rate bond minus GS10</t>
+  </si>
+  <si>
+    <t>US PMI Manufacturing</t>
+  </si>
+  <si>
+    <t>Interannual Log Growth Rate</t>
+  </si>
+  <si>
+    <t>Interannual Difference</t>
+  </si>
+  <si>
+    <t>Interannual Growth Rate</t>
+  </si>
+  <si>
+    <t>Approximately</t>
   </si>
 </sst>
 </file>
@@ -358,15 +427,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,15 +449,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,9 +502,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}" name="Table3" displayName="Table3" ref="A1:C88" totalsRowShown="0">
-  <autoFilter ref="A1:C88" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}" name="Table3" displayName="Table3" ref="A1:C106" totalsRowShown="0">
+  <autoFilter ref="A1:C106" xr:uid="{2D954817-6884-4510-AB1C-D3A89A17357B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C106">
+    <sortCondition ref="A1:A106"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4DB4B9FB-81B7-4F5F-BCCE-F9AFD405CE77}" name="Variable" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5D8E1A5D-D272-45B8-9953-A4BCC32A72D9}" name="Transformation"/>
@@ -417,9 +522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1467,19 +1572,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F71190-3B77-4C5D-A499-CE68E248D7F2}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:C88"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1490,962 +1598,1268 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" t="s">
-        <v>100</v>
-      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
